--- a/tester.xlsx
+++ b/tester.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>Blackbox testning</t>
   </si>
@@ -88,6 +88,69 @@
   </si>
   <si>
     <t>Liksidig, Success</t>
+  </si>
+  <si>
+    <t>Triangeln är liksidig</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Triangeln är likbent</t>
+  </si>
+  <si>
+    <t>Triangeln har inga lika sidor</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>1 1 3</t>
+  </si>
+  <si>
+    <t>2 3 2</t>
+  </si>
+  <si>
+    <t>2 3 3</t>
+  </si>
+  <si>
+    <t>Felaktigt utfall</t>
+  </si>
+  <si>
+    <t>Förväntat utfall</t>
+  </si>
+  <si>
+    <t>1 2,5 1</t>
+  </si>
+  <si>
+    <t>2 2 2</t>
+  </si>
+  <si>
+    <t>1,5 1,5 1,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 2 </t>
+  </si>
+  <si>
+    <t>2 2 2 2</t>
+  </si>
+  <si>
+    <t>0 2 3</t>
+  </si>
+  <si>
+    <t>0 0 3</t>
+  </si>
+  <si>
+    <t>1 0 0</t>
+  </si>
+  <si>
+    <t>1 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">För få eller inga värden = liksidig, </t>
+  </si>
+  <si>
+    <t>0 0 inklusive</t>
   </si>
 </sst>
 </file>
@@ -419,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:H31"/>
+  <dimension ref="A4:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,15 +494,16 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -461,8 +525,11 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -475,11 +542,20 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2</v>
       </c>
@@ -492,11 +568,20 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3</v>
       </c>
@@ -504,16 +589,25 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>4</v>
       </c>
@@ -521,16 +615,25 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>5</v>
       </c>
@@ -538,190 +641,260 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
+      <c r="F22" t="e">
+        <f>E24:F25</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="G22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>16</v>
       </c>
@@ -729,41 +902,41 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>18</v>
       </c>
       <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -772,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>19</v>
       </c>
@@ -780,16 +953,16 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>20</v>
       </c>
@@ -797,33 +970,33 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>22</v>
       </c>
@@ -831,18 +1004,43 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
